--- a/18회차_실습체크리스트_맹민재.xlsx
+++ b/18회차_실습체크리스트_맹민재.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minjae\Desktop\KB_문풀_자료\KB 기본심화 문제\제출\3월\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minjae\Documents\Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -21,46 +21,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <x:si>
-    <x:t>02 웹 인터페이스 구축을 위한 Vue.js</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01 웹 표준 HTML/CSS/JavaScript</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실습한 단원의 항목은 v 체크해주세요.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">git이 없을시 실습이 완료된 디렉터리를 압축하여(홍길동_실습.zip) DM으로 보내주세요.  </x:t>
+    <x:t>03 CSS 기초, 속성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 Pinia 상태 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01 Node.js 기초</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01 개발환경 구축, ES6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05 자바스크립트 기본 문법</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02 템플릿, 디렉티브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04 레이아웃, 반응형 웹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01 HTML 기본 태그</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06 단일 파일 컴포넌트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제출일자: 4월 7일(월)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08 Composition API</x:t>
   </x:si>
   <x:si>
     <x:t>05_javascript(기본)</x:t>
   </x:si>
   <x:si>
-    <x:t>08 Composition API</x:t>
+    <x:t>03 Vue 인스턴스, 이벤트</x:t>
   </x:si>
   <x:si>
     <x:t>06_javascript(심화)</x:t>
   </x:si>
   <x:si>
-    <x:t>03 Vue 인스턴스, 이벤트</x:t>
-  </x:si>
-  <x:si>
     <x:t>05_javascript(심화)</x:t>
   </x:si>
   <x:si>
+    <x:t>02 입력 양식 및 구조 태그</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11 라우트와 Axios 연동</x:t>
+  </x:si>
+  <x:si>
     <x:t>06_javascript(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02 입력 양식 및 구조 태그</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11 라우트와 Axios 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09 라우팅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실습 디렉터리</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -400,181 +412,169 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>02 템플릿, 디렉티브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01 개발환경 구축, ES6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04 레이아웃, 반응형 웹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03 CSS 기초, 속성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06 단일 파일 컴포넌트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01 Node.js 기초</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05 자바스크립트 기본 문법</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제출일자: 4월 7일(월)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 Pinia 상태 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01 HTML 기본 태그</x:t>
+    <x:t>git 주소 :  https://github.com/Mminjae/Practice.git</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02 파일 관리하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11_vue(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02_html(심화)</x:t>
   </x:si>
   <x:si>
     <x:t>02_html(기본)</x:t>
   </x:si>
   <x:si>
+    <x:t>02_vue(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04_vue(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10_vue(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05_vue(심화)</x:t>
+  </x:si>
+  <x:si>
     <x:t>10 Axios</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">git 주소 : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>04_vue(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10_vue(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05_vue(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02_vue(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02 파일 관리하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02_html(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11_vue(심화)</x:t>
+    <x:t>02_node(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11_vue(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10_vue(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07 컴포넌트 심화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03_css(심화)</x:t>
   </x:si>
   <x:si>
     <x:t>01_node(기본)</x:t>
   </x:si>
   <x:si>
+    <x:t>12_vue(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03_vue(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07_vue(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04 부트스트랩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02_node(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01_node(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06 문서 객체 모델</x:t>
+  </x:si>
+  <x:si>
     <x:t>이름 : 홍길동</x:t>
   </x:si>
   <x:si>
-    <x:t>02_node(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10_vue(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07 컴포넌트 심화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12_vue(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03_vue(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11_vue(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07_vue(심화)</x:t>
-  </x:si>
-  <x:si>
     <x:t>08_vue(심화)</x:t>
   </x:si>
   <x:si>
     <x:t>01_html(심화)</x:t>
   </x:si>
   <x:si>
-    <x:t>03_css(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01_node(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04 부트스트랩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02_node(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06 문서 객체 모델</x:t>
+    <x:t>01_vue(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12_vue(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실습 체크 리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05_vue(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03_css(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05 스타일 처리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06_vue(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04_css(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06_vue(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03_vue(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01_vue(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04_css(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09_vue(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04_vue(기본)</x:t>
   </x:si>
   <x:si>
     <x:t>02_vue(기본)</x:t>
   </x:si>
   <x:si>
-    <x:t>06_vue(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06_vue(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01_vue(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03_vue(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01_vue(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09_vue(심화)</x:t>
-  </x:si>
-  <x:si>
     <x:t>01_html(기본)</x:t>
   </x:si>
   <x:si>
-    <x:t>04_vue(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실습 체크 리스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04_css(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05 스타일 처리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03_css(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12_vue(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05_vue(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04_css(기본)</x:t>
-  </x:si>
-  <x:si>
     <x:t>08_vue(기본)</x:t>
   </x:si>
   <x:si>
+    <x:t>09_vue(기본)</x:t>
+  </x:si>
+  <x:si>
     <x:t>07_vue(기본)</x:t>
   </x:si>
   <x:si>
-    <x:t>09_vue(기본)</x:t>
+    <x:t>01 웹 표준 HTML/CSS/JavaScript</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02 웹 인터페이스 구축을 위한 Vue.js</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">git이 없을시 실습이 완료된 디렉터리를 압축하여(홍길동_실습.zip) DM으로 보내주세요.  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>실습한 단원의 항목은 v 체크해주세요.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09 라우팅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실습 디렉터리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본</x:t>
   </x:si>
   <x:si>
     <x:t>심화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단원</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1614,8 +1614,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:F29"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <x:selection activeCell="G16" activeCellId="0" sqref="G16:G16"/>
+    <x:sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <x:selection activeCell="A27" activeCellId="0" sqref="A27:F27"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -1628,7 +1628,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="19.25">
       <x:c r="A1" s="12" t="s">
-        <x:v>60</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B1" s="13"/>
       <x:c r="C1" s="13"/>
@@ -1638,7 +1638,7 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="14" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B2" s="15"/>
       <x:c r="C2" s="15"/>
@@ -1648,226 +1648,226 @@
     </x:row>
     <x:row r="3" spans="1:6" ht="27" customHeight="1">
       <x:c r="A3" s="16" t="s">
-        <x:v>36</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B3" s="17"/>
       <x:c r="C3" s="17"/>
       <x:c r="D3" s="18"/>
       <x:c r="E3" s="19" t="s">
-        <x:v>13</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F3" s="19"/>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
       <x:c r="F4" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="20" t="s">
-        <x:v>1</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="5"/>
       <x:c r="D5" s="6"/>
       <x:c r="E5" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F5" s="8" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="20"/>
       <x:c r="B6" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C6" s="5"/>
       <x:c r="D6" s="6"/>
       <x:c r="E6" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F6" s="8" t="s">
-        <x:v>33</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="20"/>
       <x:c r="B7" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C7" s="5"/>
       <x:c r="D7" s="6"/>
       <x:c r="E7" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F7" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="20"/>
       <x:c r="B8" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C8" s="5"/>
       <x:c r="D8" s="6"/>
       <x:c r="E8" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F8" s="8" t="s">
-        <x:v>61</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="20"/>
       <x:c r="B9" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C9" s="5"/>
       <x:c r="D9" s="6"/>
       <x:c r="E9" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F9" s="8" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="20"/>
       <x:c r="B10" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C10" s="5"/>
       <x:c r="D10" s="6"/>
       <x:c r="E10" s="7" t="s">
-        <x:v>9</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F10" s="8" t="s">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="20" t="s">
-        <x:v>0</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B11" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C11" s="5"/>
       <x:c r="D11" s="6"/>
       <x:c r="E11" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F11" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="20"/>
       <x:c r="B12" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C12" s="10"/>
       <x:c r="D12" s="11"/>
       <x:c r="E12" s="10" t="s">
-        <x:v>49</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F12" s="11" t="s">
-        <x:v>37</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="20"/>
       <x:c r="B13" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C13" s="5"/>
       <x:c r="D13" s="6"/>
       <x:c r="E13" s="7" t="s">
-        <x:v>54</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F13" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="20"/>
       <x:c r="B14" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C14" s="5"/>
       <x:c r="D14" s="6"/>
       <x:c r="E14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F14" s="8" t="s">
-        <x:v>31</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="20"/>
       <x:c r="B15" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="5"/>
       <x:c r="D15" s="6"/>
       <x:c r="E15" s="7" t="s">
-        <x:v>41</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F15" s="8" t="s">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="20"/>
       <x:c r="B16" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C16" s="5"/>
       <x:c r="D16" s="6"/>
       <x:c r="E16" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F16" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="20"/>
       <x:c r="B17" s="4" t="s">
-        <x:v>62</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="5"/>
       <x:c r="D17" s="6"/>
       <x:c r="E17" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F17" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="20"/>
       <x:c r="B18" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C18" s="5"/>
       <x:c r="D18" s="6"/>
@@ -1875,46 +1875,46 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F18" s="8" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="20"/>
       <x:c r="B19" s="4" t="s">
-        <x:v>39</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C19" s="5"/>
       <x:c r="D19" s="6"/>
       <x:c r="E19" s="7" t="s">
-        <x:v>68</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F19" s="8" t="s">
-        <x:v>43</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="20"/>
       <x:c r="B20" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="5"/>
       <x:c r="D20" s="6"/>
       <x:c r="E20" s="7" t="s">
-        <x:v>67</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F20" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="20"/>
       <x:c r="B21" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C21" s="5"/>
       <x:c r="D21" s="6"/>
       <x:c r="E21" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F21" s="8" t="s">
         <x:v>57</x:v>
@@ -1923,43 +1923,43 @@
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="20"/>
       <x:c r="B22" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C22" s="5"/>
       <x:c r="D22" s="6"/>
       <x:c r="E22" s="7" t="s">
-        <x:v>38</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F22" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="20"/>
       <x:c r="B23" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C23" s="5"/>
       <x:c r="D23" s="6"/>
       <x:c r="E23" s="7" t="s">
-        <x:v>42</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F23" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="20"/>
       <x:c r="B24" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C24" s="5"/>
       <x:c r="D24" s="6"/>
       <x:c r="E24" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F24" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
@@ -1972,7 +1972,7 @@
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="22" t="s">
-        <x:v>2</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B26" s="22"/>
       <x:c r="C26" s="22"/>
@@ -1982,7 +1982,7 @@
     </x:row>
     <x:row r="27" spans="1:6">
       <x:c r="A27" s="23" t="s">
-        <x:v>27</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B27" s="23"/>
       <x:c r="C27" s="23"/>
@@ -1992,7 +1992,7 @@
     </x:row>
     <x:row r="28" spans="1:6">
       <x:c r="A28" s="24" t="s">
-        <x:v>3</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B28" s="24"/>
       <x:c r="C28" s="24"/>
@@ -2002,7 +2002,7 @@
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="24" t="s">
-        <x:v>22</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B29" s="25"/>
       <x:c r="C29" s="25"/>
